--- a/_Notes/COLLEGES_NAME (2).xlsx
+++ b/_Notes/COLLEGES_NAME (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -898,6 +898,9 @@
   </si>
   <si>
     <t xml:space="preserve">GMRIT, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRM Institute of Science &amp; Technology, Chennai</t>
   </si>
 </sst>
 </file>
@@ -1009,16 +1012,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A292"/>
+  <dimension ref="A1:A293"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A290" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A293" activeCellId="0" sqref="A293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="97.015306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="109.612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="16.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,6 +2482,11 @@
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
